--- a/sampling_event/protocol_word_documents/MarineGEO Sampling Event Fieldsheet V2.xlsx
+++ b/sampling_event/protocol_word_documents/MarineGEO Sampling Event Fieldsheet V2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\sampling_event\protocol_word_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4725BBE9-8EDF-4CBA-AD7D-0B664D47233D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA7BA9F-B058-4DC1-B5D5-7956F468E60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{021D2B0D-93E4-49FC-A7D2-39F0C95EF462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="logger datasheet" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -53,12 +54,6 @@
     <t>Sample Event Personnel</t>
   </si>
   <si>
-    <t>Deployment Location: Temp Logger 1</t>
-  </si>
-  <si>
-    <t>Deployment Location: Temp Logger 2</t>
-  </si>
-  <si>
     <t>Location Information</t>
   </si>
   <si>
@@ -107,19 +102,31 @@
     <t>Photographer</t>
   </si>
   <si>
-    <t>Unique Identifier: Logger 1</t>
-  </si>
-  <si>
-    <t>Serial Number: Logger 1</t>
-  </si>
-  <si>
-    <t>Serial Number: Logger 2</t>
-  </si>
-  <si>
-    <t>Unique Identifier: Logger 2</t>
-  </si>
-  <si>
     <t>Sampling Event &amp; Environmental Monitoring Datasheet</t>
+  </si>
+  <si>
+    <t>Temperature Logger Datasheet</t>
+  </si>
+  <si>
+    <t>Temperature Logger 1</t>
+  </si>
+  <si>
+    <t>Deployment Location</t>
+  </si>
+  <si>
+    <t>Unique Identifier</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Deployment Depth</t>
+  </si>
+  <si>
+    <t>Deployment Notes</t>
+  </si>
+  <si>
+    <t>Temperature Logger 2</t>
   </si>
 </sst>
 </file>
@@ -189,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -275,11 +282,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -302,12 +434,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -317,56 +491,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,6 +611,55 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4419599" y="447674"/>
+          <a:ext cx="1895476" cy="538613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>605287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B879C425-E878-4239-997F-69089434E2F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429124" y="66674"/>
           <a:ext cx="1895476" cy="538613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -731,10 +969,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11723415-44EF-4B46-9B03-C36A9A0DA728}">
-  <dimension ref="A1:Q42"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="K3" sqref="K3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
@@ -761,7 +1002,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -781,24 +1022,24 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="A2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -806,485 +1047,1099 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="55.5" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" ht="21" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" ht="21" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" ht="26.25" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" ht="39.75" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+    </row>
+    <row r="10" spans="1:17" ht="28.7" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" ht="43.35" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" ht="28.7" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" ht="28.7" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" ht="28.7" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" ht="28.7" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="1:17" ht="28.7" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+    </row>
+    <row r="20" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" ht="28.5" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="1:17" ht="27.75" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+    </row>
+    <row r="24" spans="1:17" ht="21" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" ht="21" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="21" customHeight="1"/>
+    <row r="27" spans="1:17" ht="21" customHeight="1"/>
+    <row r="28" spans="1:17" ht="21" customHeight="1"/>
+    <row r="29" spans="1:17" ht="21" customHeight="1"/>
+    <row r="30" spans="1:17" ht="21" customHeight="1"/>
+    <row r="31" spans="1:17" ht="21" customHeight="1"/>
+    <row r="32" spans="1:17" ht="21" customHeight="1"/>
+    <row r="33" ht="21" customHeight="1"/>
+    <row r="34" ht="21" customHeight="1"/>
+    <row r="35" ht="21" customHeight="1"/>
+    <row r="36" ht="21" customHeight="1"/>
+    <row r="37" ht="21" customHeight="1"/>
+    <row r="38" ht="21" customHeight="1"/>
+    <row r="39" ht="21" customHeight="1"/>
+    <row r="40" ht="21" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="A24:Q25"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:O23"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="A4:Q6"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="A16:Q17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="M10:O11"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A20:Q21"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G8"/>
+    <mergeCell ref="H7:K8"/>
+    <mergeCell ref="L7:N8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="A12:Q13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:O15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14555511.V1</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57580284-E08D-4CDC-BFA9-F7C9A86DBFFC}">
+  <dimension ref="A1:Q42"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="6.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" customWidth="1"/>
+    <col min="18" max="28" width="6.85546875" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="12.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="54" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
+    </row>
+    <row r="3" spans="1:17" ht="39" customHeight="1" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+    </row>
+    <row r="4" spans="1:17" ht="24" customHeight="1">
+      <c r="A4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="14" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
+    </row>
+    <row r="5" spans="1:17" ht="43.35" customHeight="1">
+      <c r="A5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" ht="43.35" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="43"/>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="43.35" customHeight="1">
+      <c r="A6" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="43"/>
+    </row>
+    <row r="7" spans="1:17" ht="42.75" customHeight="1">
+      <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="14" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="45"/>
+    </row>
+    <row r="8" spans="1:17" ht="41.25" customHeight="1">
+      <c r="A8" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="45"/>
+    </row>
+    <row r="9" spans="1:17" ht="33" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+    </row>
+    <row r="12" spans="1:17" ht="23.25" customHeight="1">
+      <c r="A12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
+    </row>
+    <row r="13" spans="1:17" ht="42.75" customHeight="1">
+      <c r="A13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="43"/>
+    </row>
+    <row r="14" spans="1:17" ht="42.75" customHeight="1">
+      <c r="A14" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" ht="21" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="1:17" ht="21" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="1:17" ht="21" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-    </row>
-    <row r="9" spans="1:17" ht="33" customHeight="1">
-      <c r="A9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-    </row>
-    <row r="11" spans="1:17" ht="39.75" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-    </row>
-    <row r="12" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-    </row>
-    <row r="15" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="43"/>
+    </row>
+    <row r="15" spans="1:17" ht="42.75" customHeight="1">
+      <c r="A15" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="45"/>
+    </row>
+    <row r="16" spans="1:17" ht="42.75" customHeight="1">
+      <c r="A16" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="45"/>
+    </row>
+    <row r="17" spans="1:17" ht="32.25" customHeight="1">
+      <c r="A17" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="47"/>
+    </row>
+    <row r="18" spans="1:17" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
     </row>
     <row r="19" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="13"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" ht="21.6" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="21" customHeight="1">
       <c r="A24" s="5"/>
@@ -1342,51 +2197,24 @@
     <row r="41" ht="21" customHeight="1"/>
     <row r="42" ht="21" customHeight="1"/>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A22:Q23"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="H9:K10"/>
-    <mergeCell ref="L9:N10"/>
-    <mergeCell ref="O9:Q10"/>
-    <mergeCell ref="A14:Q15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:O17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A6:Q8"/>
+  <mergeCells count="17">
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A17:Q18"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
     <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="A18:Q19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="M20:O21"/>
-    <mergeCell ref="P20:Q21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M12:O13"/>
+    <mergeCell ref="A9:Q10"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
